--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Sfrp1</t>
   </si>
   <si>
     <t>Fzd2</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.30336287938788</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H2">
-        <v>1.30336287938788</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I2">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J2">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188394773444314</v>
+        <v>0.4403303333333333</v>
       </c>
       <c r="N2">
-        <v>0.188394773444314</v>
+        <v>1.320991</v>
       </c>
       <c r="O2">
-        <v>0.01143717506242703</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="P2">
-        <v>0.01143717506242703</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="Q2">
-        <v>0.2455467543780084</v>
+        <v>1.327961282399889</v>
       </c>
       <c r="R2">
-        <v>0.2455467543780084</v>
+        <v>11.951651541599</v>
       </c>
       <c r="S2">
-        <v>0.0001110371775295275</v>
+        <v>0.0005563299058321181</v>
       </c>
       <c r="T2">
-        <v>0.0001110371775295275</v>
+        <v>0.0005563299058321182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.30336287938788</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H3">
-        <v>1.30336287938788</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I3">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J3">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5224159285787</v>
+        <v>15.65098733333333</v>
       </c>
       <c r="N3">
-        <v>15.5224159285787</v>
+        <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9423434903274308</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="P3">
-        <v>0.9423434903274308</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="Q3">
-        <v>20.23134071972863</v>
+        <v>47.20071191249089</v>
       </c>
       <c r="R3">
-        <v>20.23134071972863</v>
+        <v>424.806407212418</v>
       </c>
       <c r="S3">
-        <v>0.009148689327404367</v>
+        <v>0.01977404609720961</v>
       </c>
       <c r="T3">
-        <v>0.009148689327404367</v>
+        <v>0.01977404609720961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.30336287938788</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H4">
-        <v>1.30336287938788</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I4">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J4">
-        <v>0.009708444342545969</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.761331449863888</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N4">
-        <v>0.761331449863888</v>
+        <v>0.004531</v>
       </c>
       <c r="O4">
-        <v>0.04621933461014217</v>
+        <v>8.876335118539137E-05</v>
       </c>
       <c r="P4">
-        <v>0.04621933461014217</v>
+        <v>8.876335118539136E-05</v>
       </c>
       <c r="Q4">
-        <v>0.9922911506631464</v>
+        <v>0.004554908073222222</v>
       </c>
       <c r="R4">
-        <v>0.9922911506631464</v>
+        <v>0.040994172659</v>
       </c>
       <c r="S4">
-        <v>0.0004487178376120738</v>
+        <v>1.908211943401074E-06</v>
       </c>
       <c r="T4">
-        <v>0.0004487178376120738</v>
+        <v>1.908211943401074E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.947072453085</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H5">
-        <v>132.947072453085</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I5">
-        <v>0.990291555657454</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J5">
-        <v>0.990291555657454</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.188394773444314</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>0.188394773444314</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.01143717506242703</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="P5">
-        <v>0.01143717506242703</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="Q5">
-        <v>25.04653359488375</v>
+        <v>0.02446340497944444</v>
       </c>
       <c r="R5">
-        <v>25.04653359488375</v>
+        <v>0.220170644815</v>
       </c>
       <c r="S5">
-        <v>0.0113261378848975</v>
+        <v>1.024858478098987E-05</v>
       </c>
       <c r="T5">
-        <v>0.0113261378848975</v>
+        <v>1.024858478098987E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.947072453085</v>
+        <v>3.015829666666667</v>
       </c>
       <c r="H6">
-        <v>132.947072453085</v>
+        <v>9.047489000000001</v>
       </c>
       <c r="I6">
-        <v>0.990291555657454</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="J6">
-        <v>0.990291555657454</v>
+        <v>0.02149774561142444</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.5224159285787</v>
+        <v>0.914341</v>
       </c>
       <c r="N6">
-        <v>15.5224159285787</v>
+        <v>2.743023</v>
       </c>
       <c r="O6">
-        <v>0.9423434903274308</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="P6">
-        <v>0.9423434903274308</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="Q6">
-        <v>2063.659755103673</v>
+        <v>2.757496713249667</v>
       </c>
       <c r="R6">
-        <v>2063.659755103673</v>
+        <v>24.817470419247</v>
       </c>
       <c r="S6">
-        <v>0.9331948010000264</v>
+        <v>0.001155212811658319</v>
       </c>
       <c r="T6">
-        <v>0.9331948010000264</v>
+        <v>0.001155212811658319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>136.9593173333334</v>
+      </c>
+      <c r="H7">
+        <v>410.8779520000001</v>
+      </c>
+      <c r="I7">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="J7">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4403303333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.320991</v>
+      </c>
+      <c r="O7">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="P7">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="Q7">
+        <v>60.30734185449246</v>
+      </c>
+      <c r="R7">
+        <v>542.7660766904321</v>
+      </c>
+      <c r="S7">
+        <v>0.02526487651376571</v>
+      </c>
+      <c r="T7">
+        <v>0.02526487651376571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>136.9593173333334</v>
+      </c>
+      <c r="H8">
+        <v>410.8779520000001</v>
+      </c>
+      <c r="I8">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="J8">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N8">
+        <v>46.952962</v>
+      </c>
+      <c r="O8">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="P8">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="Q8">
+        <v>2143.548540765981</v>
+      </c>
+      <c r="R8">
+        <v>19291.93686689383</v>
+      </c>
+      <c r="S8">
+        <v>0.8980082278270888</v>
+      </c>
+      <c r="T8">
+        <v>0.8980082278270888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>136.9593173333334</v>
+      </c>
+      <c r="H9">
+        <v>410.8779520000001</v>
+      </c>
+      <c r="I9">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="J9">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.001510333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.004531</v>
+      </c>
+      <c r="O9">
+        <v>8.876335118539137E-05</v>
+      </c>
+      <c r="P9">
+        <v>8.876335118539136E-05</v>
+      </c>
+      <c r="Q9">
+        <v>0.2068542222791112</v>
+      </c>
+      <c r="R9">
+        <v>1.861688000512</v>
+      </c>
+      <c r="S9">
+        <v>8.66585430815747E-05</v>
+      </c>
+      <c r="T9">
+        <v>8.665854308157469E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>136.9593173333334</v>
+      </c>
+      <c r="H10">
+        <v>410.8779520000001</v>
+      </c>
+      <c r="I10">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="J10">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.008111666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.024335</v>
+      </c>
+      <c r="O10">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="P10">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="Q10">
+        <v>1.110968329102222</v>
+      </c>
+      <c r="R10">
+        <v>9.998714961920001</v>
+      </c>
+      <c r="S10">
+        <v>0.000465423890066237</v>
+      </c>
+      <c r="T10">
+        <v>0.000465423890066237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>136.9593173333334</v>
+      </c>
+      <c r="H11">
+        <v>410.8779520000001</v>
+      </c>
+      <c r="I11">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="J11">
+        <v>0.976287419574543</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.914341</v>
+      </c>
+      <c r="N11">
+        <v>2.743023</v>
+      </c>
+      <c r="O11">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="P11">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="Q11">
+        <v>125.2275191698774</v>
+      </c>
+      <c r="R11">
+        <v>1127.047672528896</v>
+      </c>
+      <c r="S11">
+        <v>0.05246223280054077</v>
+      </c>
+      <c r="T11">
+        <v>0.05246223280054077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>132.947072453085</v>
-      </c>
-      <c r="H7">
-        <v>132.947072453085</v>
-      </c>
-      <c r="I7">
-        <v>0.990291555657454</v>
-      </c>
-      <c r="J7">
-        <v>0.990291555657454</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.761331449863888</v>
-      </c>
-      <c r="N7">
-        <v>0.761331449863888</v>
-      </c>
-      <c r="O7">
-        <v>0.04621933461014217</v>
-      </c>
-      <c r="P7">
-        <v>0.04621933461014217</v>
-      </c>
-      <c r="Q7">
-        <v>101.2167874258666</v>
-      </c>
-      <c r="R7">
-        <v>101.2167874258666</v>
-      </c>
-      <c r="S7">
-        <v>0.04577061677253009</v>
-      </c>
-      <c r="T7">
-        <v>0.04577061677253009</v>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.31071</v>
+      </c>
+      <c r="H12">
+        <v>0.93213</v>
+      </c>
+      <c r="I12">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J12">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4403303333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.320991</v>
+      </c>
+      <c r="O12">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="P12">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="Q12">
+        <v>0.13681503787</v>
+      </c>
+      <c r="R12">
+        <v>1.23133534083</v>
+      </c>
+      <c r="S12">
+        <v>5.731665383879352E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.731665383879354E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.31071</v>
+      </c>
+      <c r="H13">
+        <v>0.93213</v>
+      </c>
+      <c r="I13">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J13">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N13">
+        <v>46.952962</v>
+      </c>
+      <c r="O13">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="P13">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="Q13">
+        <v>4.86291827434</v>
+      </c>
+      <c r="R13">
+        <v>43.76626446906</v>
+      </c>
+      <c r="S13">
+        <v>0.002037248300450212</v>
+      </c>
+      <c r="T13">
+        <v>0.002037248300450213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.31071</v>
+      </c>
+      <c r="H14">
+        <v>0.93213</v>
+      </c>
+      <c r="I14">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J14">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.001510333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.004531</v>
+      </c>
+      <c r="O14">
+        <v>8.876335118539137E-05</v>
+      </c>
+      <c r="P14">
+        <v>8.876335118539136E-05</v>
+      </c>
+      <c r="Q14">
+        <v>0.00046927567</v>
+      </c>
+      <c r="R14">
+        <v>0.00422348103</v>
+      </c>
+      <c r="S14">
+        <v>1.965961604156073E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.965961604156073E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.31071</v>
+      </c>
+      <c r="H15">
+        <v>0.93213</v>
+      </c>
+      <c r="I15">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J15">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.008111666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.024335</v>
+      </c>
+      <c r="O15">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="P15">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="Q15">
+        <v>0.00252037595</v>
+      </c>
+      <c r="R15">
+        <v>0.02268338355</v>
+      </c>
+      <c r="S15">
+        <v>1.05587454507036E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.05587454507036E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.31071</v>
+      </c>
+      <c r="H16">
+        <v>0.93213</v>
+      </c>
+      <c r="I16">
+        <v>0.002214834814032607</v>
+      </c>
+      <c r="J16">
+        <v>0.002214834814032608</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.914341</v>
+      </c>
+      <c r="N16">
+        <v>2.743023</v>
+      </c>
+      <c r="O16">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="P16">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="Q16">
+        <v>0.28409489211</v>
+      </c>
+      <c r="R16">
+        <v>2.55685402899</v>
+      </c>
+      <c r="S16">
+        <v>0.0001190173890381153</v>
+      </c>
+      <c r="T16">
+        <v>0.0001190173890381153</v>
       </c>
     </row>
   </sheetData>
